--- a/12_06_blankRowInserter/save_table.xlsx
+++ b/12_06_blankRowInserter/save_table.xlsx
@@ -36,31 +36,31 @@
     <t>6</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>25</t>
@@ -439,7 +439,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -501,117 +501,100 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1" t="s"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="1" t="s"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
